--- a/sistema_portachupetes/ui/static/Template Materiales - Udibaby.xlsx
+++ b/sistema_portachupetes/ui/static/Template Materiales - Udibaby.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Mera\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Mera\Documents\Python\gestionportachupetes\sistema_portachupetes\ui\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13132C9E-6592-4A80-8C60-030F8A3434CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B30A8C-CE42-46BD-B169-7B42643FF1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DB98540C-9DDF-436D-9636-E213ECE0792F}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>codigo material</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Bolita de Color Blanco Traida de Taiwan (Ejemplo practico, Borrar antes de subir)</t>
+  </si>
+  <si>
+    <t>costo unitario</t>
   </si>
 </sst>
 </file>
@@ -229,10 +232,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804FCEFC-C2A0-4CD3-B6D8-F9083D3A038B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,9 +566,10 @@
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +591,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -613,6 +616,9 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +626,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Categoria no Permitida" promptTitle="Colocar una categoria" xr:uid="{5FCD9A2E-B321-4499-9FD1-AF0B73188A7C}">
           <x14:formula1>
             <xm:f>aux!$D$2:$D$9</xm:f>
